--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt3-Fzd8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
   </si>
   <si>
     <t>Wnt3</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H2">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J2">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N2">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P2">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q2">
-        <v>0.4179404370555555</v>
+        <v>0.4468935669726666</v>
       </c>
       <c r="R2">
-        <v>3.7614639335</v>
+        <v>4.022042102753999</v>
       </c>
       <c r="S2">
-        <v>0.126701770181415</v>
+        <v>0.1497356552292388</v>
       </c>
       <c r="T2">
-        <v>0.126701770181415</v>
+        <v>0.1497356552292388</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -602,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H3">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J3">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +629,22 @@
         <v>8.740964</v>
       </c>
       <c r="O3">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P3">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q3">
-        <v>0.5039408550555555</v>
+        <v>0.6035179169435555</v>
       </c>
       <c r="R3">
-        <v>4.5354676955</v>
+        <v>5.431661252491999</v>
       </c>
       <c r="S3">
-        <v>0.1527734402828012</v>
+        <v>0.2022140335299474</v>
       </c>
       <c r="T3">
-        <v>0.1527734402828013</v>
+        <v>0.2022140335299474</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
@@ -664,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H4">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J4">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +685,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N4">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P4">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q4">
-        <v>0.005053381277777777</v>
+        <v>0.003932652452666666</v>
       </c>
       <c r="R4">
-        <v>0.0454804315</v>
+        <v>0.03539387207399999</v>
       </c>
       <c r="S4">
-        <v>0.00153197033961793</v>
+        <v>0.00131767010158133</v>
       </c>
       <c r="T4">
-        <v>0.00153197033961793</v>
+        <v>0.001317670101581329</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -726,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H5">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J5">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N5">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O5">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P5">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q5">
-        <v>0.5995466294027778</v>
+        <v>0.2040059144522222</v>
       </c>
       <c r="R5">
-        <v>5.395919664625</v>
+        <v>1.83605323007</v>
       </c>
       <c r="S5">
-        <v>0.1817570460202566</v>
+        <v>0.06835399193162224</v>
       </c>
       <c r="T5">
-        <v>0.1817570460202566</v>
+        <v>0.06835399193162223</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.1729583333333333</v>
+        <v>0.2071343333333333</v>
       </c>
       <c r="H6">
-        <v>0.518875</v>
+        <v>0.6214029999999999</v>
       </c>
       <c r="I6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="J6">
-        <v>0.4642595111127018</v>
+        <v>0.4218324028717592</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +809,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N6">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O6">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P6">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q6">
-        <v>0.004932368097222222</v>
+        <v>0.0006298955076666665</v>
       </c>
       <c r="R6">
-        <v>0.044391312875</v>
+        <v>0.005669059568999999</v>
       </c>
       <c r="S6">
-        <v>0.001495284288611015</v>
+        <v>0.0002110520793694735</v>
       </c>
       <c r="T6">
-        <v>0.001495284288611015</v>
+        <v>0.0002110520793694734</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +838,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H7">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I7">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J7">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N7">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P7">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q7">
-        <v>0.1127865279666667</v>
+        <v>0.03646041306266666</v>
       </c>
       <c r="R7">
-        <v>1.0150787517</v>
+        <v>0.328143717564</v>
       </c>
       <c r="S7">
-        <v>0.03419207972951605</v>
+        <v>0.01221638493668674</v>
       </c>
       <c r="T7">
-        <v>0.03419207972951605</v>
+        <v>0.01221638493668674</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H8">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J8">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +939,22 @@
         <v>8.740964</v>
       </c>
       <c r="O8">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P8">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q8">
-        <v>0.1359948315666667</v>
+        <v>0.04923882143022221</v>
       </c>
       <c r="R8">
-        <v>1.2239534841</v>
+        <v>0.443149392872</v>
       </c>
       <c r="S8">
-        <v>0.04122785059137411</v>
+        <v>0.01649790405244467</v>
       </c>
       <c r="T8">
-        <v>0.04122785059137413</v>
+        <v>0.01649790405244467</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H9">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I9">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J9">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,28 +995,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N9">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P9">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q9">
-        <v>0.001363719033333333</v>
+        <v>0.0003208507426666666</v>
       </c>
       <c r="R9">
-        <v>0.0122734713</v>
+        <v>0.002887656684</v>
       </c>
       <c r="S9">
-        <v>0.0004134216271838123</v>
+        <v>0.0001075038884749032</v>
       </c>
       <c r="T9">
-        <v>0.0004134216271838123</v>
+        <v>0.0001075038884749032</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H10">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J10">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N10">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O10">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P10">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q10">
-        <v>0.1617952624083333</v>
+        <v>0.01664409706888889</v>
       </c>
       <c r="R10">
-        <v>1.456157361675</v>
+        <v>0.14979687362</v>
       </c>
       <c r="S10">
-        <v>0.04904944421871631</v>
+        <v>0.00557675241823645</v>
       </c>
       <c r="T10">
-        <v>0.04904944421871631</v>
+        <v>0.005576752418236449</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.046675</v>
+        <v>0.01689933333333333</v>
       </c>
       <c r="H11">
-        <v>0.140025</v>
+        <v>0.050698</v>
       </c>
       <c r="I11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="J11">
-        <v>0.1252863175977954</v>
+        <v>0.0344157642637587</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,28 +1119,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N11">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O11">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P11">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q11">
-        <v>0.001331062091666667</v>
+        <v>5.139087266666666E-05</v>
       </c>
       <c r="R11">
-        <v>0.011979558825</v>
+        <v>0.000462517854</v>
       </c>
       <c r="S11">
-        <v>0.0004035214310050734</v>
+        <v>1.721896791594757E-05</v>
       </c>
       <c r="T11">
-        <v>0.0004035214310050734</v>
+        <v>1.721896791594756E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,13 +1148,13 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1160,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H12">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I12">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J12">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.416422666666667</v>
+        <v>2.157506</v>
       </c>
       <c r="N12">
-        <v>7.249268</v>
+        <v>6.472517999999999</v>
       </c>
       <c r="O12">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839517</v>
       </c>
       <c r="P12">
-        <v>0.2729115228630338</v>
+        <v>0.3549648016839516</v>
       </c>
       <c r="Q12">
-        <v>0.3695032447022222</v>
+        <v>0.3195856104306666</v>
       </c>
       <c r="R12">
-        <v>3.32552920232</v>
+        <v>2.876270493876</v>
       </c>
       <c r="S12">
-        <v>0.1120176729521027</v>
+        <v>0.1070799946927833</v>
       </c>
       <c r="T12">
-        <v>0.1120176729521028</v>
+        <v>0.1070799946927833</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,13 +1210,13 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1222,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H13">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I13">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J13">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1249,22 @@
         <v>8.740964</v>
       </c>
       <c r="O13">
-        <v>0.3290690586319825</v>
+        <v>0.4793705560628122</v>
       </c>
       <c r="P13">
-        <v>0.3290690586319827</v>
+        <v>0.4793705560628121</v>
       </c>
       <c r="Q13">
-        <v>0.4455366472622221</v>
+        <v>0.4315918960275555</v>
       </c>
       <c r="R13">
-        <v>4.00982982536</v>
+        <v>3.884327064248</v>
       </c>
       <c r="S13">
-        <v>0.1350677677578072</v>
+        <v>0.1446086945961077</v>
       </c>
       <c r="T13">
-        <v>0.1350677677578073</v>
+        <v>0.1446086945961077</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H14">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I14">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J14">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1302,28 +1305,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.02921733333333333</v>
+        <v>0.018986</v>
       </c>
       <c r="N14">
-        <v>0.08765200000000001</v>
+        <v>0.05695799999999999</v>
       </c>
       <c r="O14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871193</v>
       </c>
       <c r="P14">
-        <v>0.003299814657423431</v>
+        <v>0.003123681567871192</v>
       </c>
       <c r="Q14">
-        <v>0.004467719831111111</v>
+        <v>0.002812345550666667</v>
       </c>
       <c r="R14">
-        <v>0.04020947848</v>
+        <v>0.025311109956</v>
       </c>
       <c r="S14">
-        <v>0.001354422690621689</v>
+        <v>0.0009423013327597621</v>
       </c>
       <c r="T14">
-        <v>0.001354422690621689</v>
+        <v>0.0009423013327597619</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H15">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I15">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J15">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.466422333333333</v>
+        <v>0.9848966666666668</v>
       </c>
       <c r="N15">
-        <v>10.399267</v>
+        <v>2.95469</v>
       </c>
       <c r="O15">
-        <v>0.3914988097597292</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="P15">
-        <v>0.3914988097597293</v>
+        <v>0.1620406385718132</v>
       </c>
       <c r="Q15">
-        <v>0.5300621937311111</v>
+        <v>0.1458901168422222</v>
       </c>
       <c r="R15">
-        <v>4.77055974358</v>
+        <v>1.31301105158</v>
       </c>
       <c r="S15">
-        <v>0.1606923195207564</v>
+        <v>0.04888177823820959</v>
       </c>
       <c r="T15">
-        <v>0.1606923195207564</v>
+        <v>0.04888177823820958</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1408,16 +1411,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1529133333333333</v>
+        <v>0.1481273333333333</v>
       </c>
       <c r="H16">
-        <v>0.45874</v>
+        <v>0.444382</v>
       </c>
       <c r="I16">
-        <v>0.4104541712895028</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="J16">
-        <v>0.4104541712895029</v>
+        <v>0.3016636978787648</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1429,338 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.02851766666666667</v>
+        <v>0.003041</v>
       </c>
       <c r="N16">
-        <v>0.085553</v>
+        <v>0.009122999999999999</v>
       </c>
       <c r="O16">
-        <v>0.003220794087830817</v>
+        <v>0.0005003221135518961</v>
       </c>
       <c r="P16">
-        <v>0.003220794087830817</v>
+        <v>0.000500322113551896</v>
       </c>
       <c r="Q16">
-        <v>0.004360731468888888</v>
+        <v>0.0004504552206666666</v>
       </c>
       <c r="R16">
-        <v>0.03924658322</v>
+        <v>0.004054096986</v>
       </c>
       <c r="S16">
-        <v>0.001321988368214728</v>
+        <v>0.0001509290189045843</v>
       </c>
       <c r="T16">
-        <v>0.001321988368214729</v>
+        <v>0.0001509290189045842</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.356621</v>
+      </c>
+      <c r="I17">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J17">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.157506</v>
+      </c>
+      <c r="N17">
+        <v>6.472517999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.3549648016839517</v>
+      </c>
+      <c r="P17">
+        <v>0.3549648016839516</v>
+      </c>
+      <c r="Q17">
+        <v>0.2564706490753333</v>
+      </c>
+      <c r="R17">
+        <v>2.308235841678</v>
+      </c>
+      <c r="S17">
+        <v>0.08593276682524285</v>
+      </c>
+      <c r="T17">
+        <v>0.08593276682524283</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.356621</v>
+      </c>
+      <c r="I18">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J18">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.913654666666667</v>
+      </c>
+      <c r="N18">
+        <v>8.740964</v>
+      </c>
+      <c r="O18">
+        <v>0.4793705560628122</v>
+      </c>
+      <c r="P18">
+        <v>0.4793705560628121</v>
+      </c>
+      <c r="Q18">
+        <v>0.3463568136271111</v>
+      </c>
+      <c r="R18">
+        <v>3.117211322644</v>
+      </c>
+      <c r="S18">
+        <v>0.1160499238843124</v>
+      </c>
+      <c r="T18">
+        <v>0.1160499238843124</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.356621</v>
+      </c>
+      <c r="I19">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J19">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.018986</v>
+      </c>
+      <c r="N19">
+        <v>0.05695799999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.003123681567871193</v>
+      </c>
+      <c r="P19">
+        <v>0.003123681567871192</v>
+      </c>
+      <c r="Q19">
+        <v>0.002256935435333333</v>
+      </c>
+      <c r="R19">
+        <v>0.020312418918</v>
+      </c>
+      <c r="S19">
+        <v>0.0007562062450551984</v>
+      </c>
+      <c r="T19">
+        <v>0.0007562062450551981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>21</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H20">
+        <v>0.356621</v>
+      </c>
+      <c r="I20">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J20">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.9848966666666668</v>
+      </c>
+      <c r="N20">
+        <v>2.95469</v>
+      </c>
+      <c r="O20">
+        <v>0.1620406385718132</v>
+      </c>
+      <c r="P20">
+        <v>0.1620406385718132</v>
+      </c>
+      <c r="Q20">
+        <v>0.1170782780544445</v>
+      </c>
+      <c r="R20">
+        <v>1.05370450249</v>
+      </c>
+      <c r="S20">
+        <v>0.03922811598374494</v>
+      </c>
+      <c r="T20">
+        <v>0.03922811598374493</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.1188736666666667</v>
+      </c>
+      <c r="H21">
+        <v>0.356621</v>
+      </c>
+      <c r="I21">
+        <v>0.2420881349857173</v>
+      </c>
+      <c r="J21">
+        <v>0.2420881349857172</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.003041</v>
+      </c>
+      <c r="N21">
+        <v>0.009122999999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.0005003221135518961</v>
+      </c>
+      <c r="P21">
+        <v>0.000500322113551896</v>
+      </c>
+      <c r="Q21">
+        <v>0.0003614948203333333</v>
+      </c>
+      <c r="R21">
+        <v>0.003253453383</v>
+      </c>
+      <c r="S21">
+        <v>0.0001211220473618908</v>
+      </c>
+      <c r="T21">
+        <v>0.0001211220473618907</v>
       </c>
     </row>
   </sheetData>
